--- a/TestData/RegistrationData.xlsx
+++ b/TestData/RegistrationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationTesting\Selenium\Selenium-Workspace-Udemy\Ecommerce\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1949A87-0C86-4F61-BD8B-2B3D53950370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236326AB-55E5-4EF4-AC7C-8618A5592AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{572D459B-C36A-4281-8BBF-399F2FBEFB7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{572D459B-C36A-4281-8BBF-399F2FBEFB7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Registration Page</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Test@12345</t>
   </si>
   <si>
-    <t>FirstTest</t>
-  </si>
-  <si>
-    <t>LastnameTest</t>
-  </si>
-  <si>
     <t>ecomregister</t>
   </si>
   <si>
@@ -74,6 +68,15 @@
   </si>
   <si>
     <t>ecomregister78@gmail.com</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>ecomregister1</t>
   </si>
 </sst>
 </file>
@@ -461,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4502EF5D-DFAF-43CC-A3FF-627BB307D8FE}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -490,7 +493,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -498,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -530,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DFA261-3FAE-418B-8E2F-D0F60696D412}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -542,13 +545,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -556,7 +559,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
